--- a/docs/.vuepress/public/水星工具：基金高阶专用.xlsx
+++ b/docs/.vuepress/public/水星工具：基金高阶专用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10354\Desktop\金斧子\水星筛选工具\2.0版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henry/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B278E4D-B982-47EE-85D9-8CEB33AECB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345A47C-0DF2-7442-97E7-812DFBB125B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26580" windowHeight="14920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主动型基金" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -132,14 +132,6 @@
   </si>
   <si>
     <t>统计时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,12 +342,30 @@
     <t>跟踪指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>相关链接</t>
+  </si>
+  <si>
+    <t>基金类型</t>
+  </si>
+  <si>
+    <t>规模（亿元）</t>
+  </si>
+  <si>
+    <t>任职时间</t>
+  </si>
+  <si>
+    <t>任职天数</t>
+  </si>
+  <si>
+    <t>任职回报</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +447,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -547,6 +558,15 @@
       <bottom style="thin">
         <color rgb="FFEA8887"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA8887"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -653,13 +673,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -667,9 +687,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,9 +702,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1013,134 +1033,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:V64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="1.26953125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19" style="12" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="25" style="12" customWidth="1"/>
-    <col min="13" max="13" width="1.36328125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="23" style="12" customWidth="1"/>
-    <col min="15" max="15" width="23.08984375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="27.453125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="9" style="12" customWidth="1"/>
-    <col min="18" max="18" width="0" style="13" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="0" style="13" hidden="1"/>
+    <col min="4" max="4" width="27.6640625" style="12" customWidth="1"/>
+    <col min="5" max="10" width="18.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="1.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="19" style="12" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="25" style="12" customWidth="1"/>
+    <col min="18" max="18" width="1.33203125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="23" style="12" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="27.5" style="12" customWidth="1"/>
+    <col min="22" max="22" width="9" style="12" customWidth="1"/>
+    <col min="23" max="23" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="0" style="13" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="15" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="15" customFormat="1" ht="76" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="27" t="s">
-        <v>39</v>
+      <c r="B2" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="26" t="s">
-        <v>47</v>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="31" t="s">
+        <v>45</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="26" t="s">
-        <v>46</v>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="31" t="s">
+        <v>44</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="14"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="15" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="30" t="s">
-        <v>48</v>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="28" t="s">
+        <v>46</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="30" t="s">
-        <v>49</v>
+      <c r="M3" s="32"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="1" t="s">
+        <v>50</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="14"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="14"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
+      <c r="P4" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
+      <c r="Q4" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="9" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>42</v>
+      <c r="U4" s="18" t="s">
+        <v>52</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1148,26 +1193,31 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="str">
-        <f>IF(AND(G5&gt;$I$3,H5&gt;$L$3,OR(I5=4,I5=5),OR(J5=4,J5=5),K5&gt;=15),"通过第二轮","——")</f>
+      <c r="K5" s="14"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="str">
+        <f>IF(AND(L5&gt;$N$3,M5&gt;$Q$3,OR(N5=4,N5=5),OR(O5=4,O5=5),P5&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="str">
-        <f>IF(AND(ABS(N5)&lt;ABS($O$3)*100,ABS(O5)&lt;ABS($O$3)*100,ABS(N5)&gt;0,ABS(O5)&gt;0),"通过第三轮","——")</f>
+      <c r="R5" s="14"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="str">
+        <f>IF(AND(ABS(S5)&lt;ABS($T$3)*100,ABS(T5)&lt;ABS($T$3)*100,ABS(S5)&gt;0,ABS(T5)&gt;0),"通过第三轮","——")</f>
         <v>——</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1175,26 +1225,31 @@
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="str">
-        <f>IF(AND(G6&gt;=$I$3,H6&gt;=$L$3,OR(I6=4,I6=5),OR(J6=4,J6=5),K6&gt;=15),"通过第二轮","——")</f>
+      <c r="K6" s="14"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="str">
+        <f>IF(AND(L6&gt;=$N$3,M6&gt;=$Q$3,OR(N6=4,N6=5),OR(O6=4,O6=5),P6&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="str">
-        <f>IF(AND(ABS(N6)&lt;ABS($O$3)*100,ABS(O6)&lt;ABS($O$3)*100,ABS(N6)&gt;0,ABS(O6)&gt;0),"通过第三轮","——")</f>
+      <c r="R6" s="14"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="str">
+        <f>IF(AND(ABS(S6)&lt;ABS($T$3)*100,ABS(T6)&lt;ABS($T$3)*100,ABS(S6)&gt;0,ABS(T6)&gt;0),"通过第三轮","——")</f>
         <v>——</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1202,26 +1257,31 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
-        <f t="shared" ref="L7" si="0">IF(AND(G7&gt;$I$3,H7&gt;$L$3,OR(I7=4,I7=5),OR(J7=4,J7=5),K7&gt;=15),"通过第二轮","——")</f>
+      <c r="K7" s="14"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" ref="Q7" si="0">IF(AND(L7&gt;$N$3,M7&gt;$Q$3,OR(N7=4,N7=5),OR(O7=4,O7=5),P7&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="str">
-        <f t="shared" ref="P7:P54" si="1">IF(AND(ABS(N7)&lt;ABS($O$3)*100,ABS(O7)&lt;ABS($O$3)*100,ABS(N7)&gt;0,ABS(O7)&gt;0),"通过第三轮","——")</f>
+      <c r="R7" s="14"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="str">
+        <f t="shared" ref="U7:U54" si="1">IF(AND(ABS(S7)&lt;ABS($T$3)*100,ABS(T7)&lt;ABS($T$3)*100,ABS(S7)&gt;0,ABS(T7)&gt;0),"通过第三轮","——")</f>
         <v>——</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -1229,26 +1289,31 @@
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="str">
-        <f t="shared" ref="L8" si="2">IF(AND(G8&gt;=$I$3,H8&gt;=$L$3,OR(I8=4,I8=5),OR(J8=4,J8=5),K8&gt;=15),"通过第二轮","——")</f>
+      <c r="K8" s="14"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="str">
+        <f t="shared" ref="Q8" si="2">IF(AND(L8&gt;=$N$3,M8&gt;=$Q$3,OR(N8=4,N8=5),OR(O8=4,O8=5),P8&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="str">
+      <c r="R8" s="14"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1256,26 +1321,31 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="str">
-        <f t="shared" ref="L9" si="3">IF(AND(G9&gt;$I$3,H9&gt;$L$3,OR(I9=4,I9=5),OR(J9=4,J9=5),K9&gt;=15),"通过第二轮","——")</f>
+      <c r="K9" s="14"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" ref="Q9" si="3">IF(AND(L9&gt;$N$3,M9&gt;$Q$3,OR(N9=4,N9=5),OR(O9=4,O9=5),P9&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="str">
+      <c r="R9" s="14"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1283,26 +1353,31 @@
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="str">
-        <f t="shared" ref="L10" si="4">IF(AND(G10&gt;=$I$3,H10&gt;=$L$3,OR(I10=4,I10=5),OR(J10=4,J10=5),K10&gt;=15),"通过第二轮","——")</f>
+      <c r="K10" s="14"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="str">
+        <f t="shared" ref="Q10" si="4">IF(AND(L10&gt;=$N$3,M10&gt;=$Q$3,OR(N10=4,N10=5),OR(O10=4,O10=5),P10&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="str">
+      <c r="R10" s="14"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1310,26 +1385,31 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="str">
-        <f t="shared" ref="L11" si="5">IF(AND(G11&gt;$I$3,H11&gt;$L$3,OR(I11=4,I11=5),OR(J11=4,J11=5),K11&gt;=15),"通过第二轮","——")</f>
+      <c r="K11" s="14"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" ref="Q11" si="5">IF(AND(L11&gt;$N$3,M11&gt;$Q$3,OR(N11=4,N11=5),OR(O11=4,O11=5),P11&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="str">
+      <c r="R11" s="14"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -1337,26 +1417,31 @@
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="str">
-        <f t="shared" ref="L12" si="6">IF(AND(G12&gt;=$I$3,H12&gt;=$L$3,OR(I12=4,I12=5),OR(J12=4,J12=5),K12&gt;=15),"通过第二轮","——")</f>
+      <c r="K12" s="14"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" ref="Q12" si="6">IF(AND(L12&gt;=$N$3,M12&gt;=$Q$3,OR(N12=4,N12=5),OR(O12=4,O12=5),P12&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5" t="str">
+      <c r="R12" s="14"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -1364,26 +1449,31 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="str">
-        <f t="shared" ref="L13" si="7">IF(AND(G13&gt;$I$3,H13&gt;$L$3,OR(I13=4,I13=5),OR(J13=4,J13=5),K13&gt;=15),"通过第二轮","——")</f>
+      <c r="K13" s="14"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" ref="Q13" si="7">IF(AND(L13&gt;$N$3,M13&gt;$Q$3,OR(N13=4,N13=5),OR(O13=4,O13=5),P13&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="str">
+      <c r="R13" s="14"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="V13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="15" customFormat="1" ht="30.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1391,49 +1481,59 @@
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="str">
-        <f t="shared" ref="L14" si="8">IF(AND(G14&gt;=$I$3,H14&gt;=$L$3,OR(I14=4,I14=5),OR(J14=4,J14=5),K14&gt;=15),"通过第二轮","——")</f>
+      <c r="K14" s="14"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5" t="str">
+        <f t="shared" ref="Q14" si="8">IF(AND(L14&gt;=$N$3,M14&gt;=$Q$3,OR(N14=4,N14=5),OR(O14=4,O14=5),P14&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="str">
+      <c r="R14" s="14"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="30.5" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="str">
-        <f t="shared" ref="L15" si="9">IF(AND(G15&gt;$I$3,H15&gt;$L$3,OR(I15=4,I15=5),OR(J15=4,J15=5),K15&gt;=15),"通过第二轮","——")</f>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" ref="Q15" si="9">IF(AND(L15&gt;$N$3,M15&gt;$Q$3,OR(N15=4,N15=5),OR(O15=4,O15=5),P15&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="str">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="30.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -1441,23 +1541,28 @@
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="str">
-        <f t="shared" ref="L16" si="10">IF(AND(G16&gt;=$I$3,H16&gt;=$L$3,OR(I16=4,I16=5),OR(J16=4,J16=5),K16&gt;=15),"通过第二轮","——")</f>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="str">
+        <f t="shared" ref="Q16" si="10">IF(AND(L16&gt;=$N$3,M16&gt;=$Q$3,OR(N16=4,N16=5),OR(O16=4,O16=5),P16&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="str">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30.5" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>14</v>
@@ -1465,23 +1570,28 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="str">
-        <f t="shared" ref="L17" si="11">IF(AND(G17&gt;$I$3,H17&gt;$L$3,OR(I17=4,I17=5),OR(J17=4,J17=5),K17&gt;=15),"通过第二轮","——")</f>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" ref="Q17" si="11">IF(AND(L17&gt;$N$3,M17&gt;$Q$3,OR(N17=4,N17=5),OR(O17=4,O17=5),P17&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="str">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30.5" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="5">
         <v>14</v>
@@ -1489,23 +1599,28 @@
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="str">
-        <f t="shared" ref="L18" si="12">IF(AND(G18&gt;=$I$3,H18&gt;=$L$3,OR(I18=4,I18=5),OR(J18=4,J18=5),K18&gt;=15),"通过第二轮","——")</f>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="str">
+        <f t="shared" ref="Q18" si="12">IF(AND(L18&gt;=$N$3,M18&gt;=$Q$3,OR(N18=4,N18=5),OR(O18=4,O18=5),P18&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="str">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30.5" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1513,23 +1628,28 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="str">
-        <f t="shared" ref="L19" si="13">IF(AND(G19&gt;$I$3,H19&gt;$L$3,OR(I19=4,I19=5),OR(J19=4,J19=5),K19&gt;=15),"通过第二轮","——")</f>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" ref="Q19" si="13">IF(AND(L19&gt;$N$3,M19&gt;$Q$3,OR(N19=4,N19=5),OR(O19=4,O19=5),P19&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="str">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>16</v>
@@ -1537,23 +1657,28 @@
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="str">
-        <f t="shared" ref="L20" si="14">IF(AND(G20&gt;=$I$3,H20&gt;=$L$3,OR(I20=4,I20=5),OR(J20=4,J20=5),K20&gt;=15),"通过第二轮","——")</f>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="str">
+        <f t="shared" ref="Q20" si="14">IF(AND(L20&gt;=$N$3,M20&gt;=$Q$3,OR(N20=4,N20=5),OR(O20=4,O20=5),P20&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="str">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="30.5" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -1561,23 +1686,28 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="str">
-        <f t="shared" ref="L21" si="15">IF(AND(G21&gt;$I$3,H21&gt;$L$3,OR(I21=4,I21=5),OR(J21=4,J21=5),K21&gt;=15),"通过第二轮","——")</f>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" ref="Q21" si="15">IF(AND(L21&gt;$N$3,M21&gt;$Q$3,OR(N21=4,N21=5),OR(O21=4,O21=5),P21&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="str">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="30.5" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>18</v>
@@ -1585,23 +1715,28 @@
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="str">
-        <f t="shared" ref="L22" si="16">IF(AND(G22&gt;=$I$3,H22&gt;=$L$3,OR(I22=4,I22=5),OR(J22=4,J22=5),K22&gt;=15),"通过第二轮","——")</f>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="str">
+        <f t="shared" ref="Q22" si="16">IF(AND(L22&gt;=$N$3,M22&gt;=$Q$3,OR(N22=4,N22=5),OR(O22=4,O22=5),P22&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="str">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="30.5" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -1609,23 +1744,28 @@
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="str">
-        <f t="shared" ref="L23" si="17">IF(AND(G23&gt;$I$3,H23&gt;$L$3,OR(I23=4,I23=5),OR(J23=4,J23=5),K23&gt;=15),"通过第二轮","——")</f>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" ref="Q23" si="17">IF(AND(L23&gt;$N$3,M23&gt;$Q$3,OR(N23=4,N23=5),OR(O23=4,O23=5),P23&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2" t="str">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30.5" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>20</v>
@@ -1633,23 +1773,28 @@
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5" t="str">
-        <f t="shared" ref="L24" si="18">IF(AND(G24&gt;=$I$3,H24&gt;=$L$3,OR(I24=4,I24=5),OR(J24=4,J24=5),K24&gt;=15),"通过第二轮","——")</f>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="str">
+        <f t="shared" ref="Q24" si="18">IF(AND(L24&gt;=$N$3,M24&gt;=$Q$3,OR(N24=4,N24=5),OR(O24=4,O24=5),P24&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5" t="str">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30.5" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -1657,23 +1802,28 @@
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="str">
-        <f t="shared" ref="L25" si="19">IF(AND(G25&gt;$I$3,H25&gt;$L$3,OR(I25=4,I25=5),OR(J25=4,J25=5),K25&gt;=15),"通过第二轮","——")</f>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" ref="Q25" si="19">IF(AND(L25&gt;$N$3,M25&gt;$Q$3,OR(N25=4,N25=5),OR(O25=4,O25=5),P25&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="str">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="30.5" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>22</v>
@@ -1681,731 +1831,876 @@
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="str">
-        <f t="shared" ref="L26" si="20">IF(AND(G26&gt;=$I$3,H26&gt;=$L$3,OR(I26=4,I26=5),OR(J26=4,J26=5),K26&gt;=15),"通过第二轮","——")</f>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5" t="str">
+        <f t="shared" ref="Q26" si="20">IF(AND(L26&gt;=$N$3,M26&gt;=$Q$3,OR(N26=4,N26=5),OR(O26=4,O26=5),P26&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="str">
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30.5" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2" t="str">
-        <f t="shared" ref="L27" si="21">IF(AND(G27&gt;$I$3,H27&gt;$L$3,OR(I27=4,I27=5),OR(J27=4,J27=5),K27&gt;=15),"通过第二轮","——")</f>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" ref="Q27" si="21">IF(AND(L27&gt;$N$3,M27&gt;$Q$3,OR(N27=4,N27=5),OR(O27=4,O27=5),P27&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="str">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30.5" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5" t="str">
-        <f t="shared" ref="L28" si="22">IF(AND(G28&gt;=$I$3,H28&gt;=$L$3,OR(I28=4,I28=5),OR(J28=4,J28=5),K28&gt;=15),"通过第二轮","——")</f>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="str">
+        <f t="shared" ref="Q28" si="22">IF(AND(L28&gt;=$N$3,M28&gt;=$Q$3,OR(N28=4,N28=5),OR(O28=4,O28=5),P28&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5" t="str">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="30.5" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2" t="str">
-        <f t="shared" ref="L29" si="23">IF(AND(G29&gt;$I$3,H29&gt;$L$3,OR(I29=4,I29=5),OR(J29=4,J29=5),K29&gt;=15),"通过第二轮","——")</f>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" ref="Q29" si="23">IF(AND(L29&gt;$N$3,M29&gt;$Q$3,OR(N29=4,N29=5),OR(O29=4,O29=5),P29&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="str">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30.5" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5" t="str">
-        <f t="shared" ref="L30" si="24">IF(AND(G30&gt;=$I$3,H30&gt;=$L$3,OR(I30=4,I30=5),OR(J30=4,J30=5),K30&gt;=15),"通过第二轮","——")</f>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="str">
+        <f t="shared" ref="Q30" si="24">IF(AND(L30&gt;=$N$3,M30&gt;=$Q$3,OR(N30=4,N30=5),OR(O30=4,O30=5),P30&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5" t="str">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="30.5" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2" t="str">
-        <f t="shared" ref="L31" si="25">IF(AND(G31&gt;$I$3,H31&gt;$L$3,OR(I31=4,I31=5),OR(J31=4,J31=5),K31&gt;=15),"通过第二轮","——")</f>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" ref="Q31" si="25">IF(AND(L31&gt;$N$3,M31&gt;$Q$3,OR(N31=4,N31=5),OR(O31=4,O31=5),P31&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2" t="str">
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="30.5" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5" t="str">
-        <f t="shared" ref="L32" si="26">IF(AND(G32&gt;=$I$3,H32&gt;=$L$3,OR(I32=4,I32=5),OR(J32=4,J32=5),K32&gt;=15),"通过第二轮","——")</f>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="str">
+        <f t="shared" ref="Q32" si="26">IF(AND(L32&gt;=$N$3,M32&gt;=$Q$3,OR(N32=4,N32=5),OR(O32=4,O32=5),P32&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5" t="str">
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" ht="30.5" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="str">
-        <f t="shared" ref="L33" si="27">IF(AND(G33&gt;$I$3,H33&gt;$L$3,OR(I33=4,I33=5),OR(J33=4,J33=5),K33&gt;=15),"通过第二轮","——")</f>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" ref="Q33" si="27">IF(AND(L33&gt;$N$3,M33&gt;$Q$3,OR(N33=4,N33=5),OR(O33=4,O33=5),P33&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="str">
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" ht="30.5" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5" t="str">
-        <f t="shared" ref="L34" si="28">IF(AND(G34&gt;=$I$3,H34&gt;=$L$3,OR(I34=4,I34=5),OR(J34=4,J34=5),K34&gt;=15),"通过第二轮","——")</f>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5" t="str">
+        <f t="shared" ref="Q34" si="28">IF(AND(L34&gt;=$N$3,M34&gt;=$Q$3,OR(N34=4,N34=5),OR(O34=4,O34=5),P34&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5" t="str">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" ht="30.5" customHeight="1">
       <c r="B35" s="2">
         <v>31</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2" t="str">
-        <f t="shared" ref="L35" si="29">IF(AND(G35&gt;$I$3,H35&gt;$L$3,OR(I35=4,I35=5),OR(J35=4,J35=5),K35&gt;=15),"通过第二轮","——")</f>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" ref="Q35" si="29">IF(AND(L35&gt;$N$3,M35&gt;$Q$3,OR(N35=4,N35=5),OR(O35=4,O35=5),P35&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2" t="str">
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" ht="30.5" customHeight="1">
       <c r="B36" s="5">
         <v>32</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5" t="str">
-        <f t="shared" ref="L36" si="30">IF(AND(G36&gt;=$I$3,H36&gt;=$L$3,OR(I36=4,I36=5),OR(J36=4,J36=5),K36&gt;=15),"通过第二轮","——")</f>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5" t="str">
+        <f t="shared" ref="Q36" si="30">IF(AND(L36&gt;=$N$3,M36&gt;=$Q$3,OR(N36=4,N36=5),OR(O36=4,O36=5),P36&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5" t="str">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" ht="30.5" customHeight="1">
       <c r="B37" s="2">
         <v>33</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2" t="str">
-        <f t="shared" ref="L37" si="31">IF(AND(G37&gt;$I$3,H37&gt;$L$3,OR(I37=4,I37=5),OR(J37=4,J37=5),K37&gt;=15),"通过第二轮","——")</f>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" ref="Q37" si="31">IF(AND(L37&gt;$N$3,M37&gt;$Q$3,OR(N37=4,N37=5),OR(O37=4,O37=5),P37&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2" t="str">
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" ht="30.5" customHeight="1">
       <c r="B38" s="5">
         <v>34</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5" t="str">
-        <f t="shared" ref="L38" si="32">IF(AND(G38&gt;=$I$3,H38&gt;=$L$3,OR(I38=4,I38=5),OR(J38=4,J38=5),K38&gt;=15),"通过第二轮","——")</f>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5" t="str">
+        <f t="shared" ref="Q38" si="32">IF(AND(L38&gt;=$N$3,M38&gt;=$Q$3,OR(N38=4,N38=5),OR(O38=4,O38=5),P38&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5" t="str">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" ht="30.5" customHeight="1">
       <c r="B39" s="2">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2" t="str">
-        <f t="shared" ref="L39" si="33">IF(AND(G39&gt;$I$3,H39&gt;$L$3,OR(I39=4,I39=5),OR(J39=4,J39=5),K39&gt;=15),"通过第二轮","——")</f>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" ref="Q39" si="33">IF(AND(L39&gt;$N$3,M39&gt;$Q$3,OR(N39=4,N39=5),OR(O39=4,O39=5),P39&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2" t="str">
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" ht="30.5" customHeight="1">
       <c r="B40" s="5">
         <v>36</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5" t="str">
-        <f t="shared" ref="L40" si="34">IF(AND(G40&gt;=$I$3,H40&gt;=$L$3,OR(I40=4,I40=5),OR(J40=4,J40=5),K40&gt;=15),"通过第二轮","——")</f>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="str">
+        <f t="shared" ref="Q40" si="34">IF(AND(L40&gt;=$N$3,M40&gt;=$Q$3,OR(N40=4,N40=5),OR(O40=4,O40=5),P40&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5" t="str">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" ht="30.5" customHeight="1">
       <c r="B41" s="2">
         <v>37</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="str">
-        <f t="shared" ref="L41" si="35">IF(AND(G41&gt;$I$3,H41&gt;$L$3,OR(I41=4,I41=5),OR(J41=4,J41=5),K41&gt;=15),"通过第二轮","——")</f>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" ref="Q41" si="35">IF(AND(L41&gt;$N$3,M41&gt;$Q$3,OR(N41=4,N41=5),OR(O41=4,O41=5),P41&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2" t="str">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" ht="30.5" customHeight="1">
       <c r="B42" s="5">
         <v>38</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5" t="str">
-        <f t="shared" ref="L42" si="36">IF(AND(G42&gt;=$I$3,H42&gt;=$L$3,OR(I42=4,I42=5),OR(J42=4,J42=5),K42&gt;=15),"通过第二轮","——")</f>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5" t="str">
+        <f t="shared" ref="Q42" si="36">IF(AND(L42&gt;=$N$3,M42&gt;=$Q$3,OR(N42=4,N42=5),OR(O42=4,O42=5),P42&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5" t="str">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" ht="30.5" customHeight="1">
       <c r="B43" s="2">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2" t="str">
-        <f t="shared" ref="L43" si="37">IF(AND(G43&gt;$I$3,H43&gt;$L$3,OR(I43=4,I43=5),OR(J43=4,J43=5),K43&gt;=15),"通过第二轮","——")</f>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" ref="Q43" si="37">IF(AND(L43&gt;$N$3,M43&gt;$Q$3,OR(N43=4,N43=5),OR(O43=4,O43=5),P43&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2" t="str">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" ht="30.5" customHeight="1">
       <c r="B44" s="5">
         <v>40</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5" t="str">
-        <f t="shared" ref="L44" si="38">IF(AND(G44&gt;=$I$3,H44&gt;=$L$3,OR(I44=4,I44=5),OR(J44=4,J44=5),K44&gt;=15),"通过第二轮","——")</f>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5" t="str">
+        <f t="shared" ref="Q44" si="38">IF(AND(L44&gt;=$N$3,M44&gt;=$Q$3,OR(N44=4,N44=5),OR(O44=4,O44=5),P44&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5" t="str">
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" ht="30.5" customHeight="1">
       <c r="B45" s="2">
         <v>41</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2" t="str">
-        <f t="shared" ref="L45" si="39">IF(AND(G45&gt;$I$3,H45&gt;$L$3,OR(I45=4,I45=5),OR(J45=4,J45=5),K45&gt;=15),"通过第二轮","——")</f>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" ref="Q45" si="39">IF(AND(L45&gt;$N$3,M45&gt;$Q$3,OR(N45=4,N45=5),OR(O45=4,O45=5),P45&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2" t="str">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" ht="30.5" customHeight="1">
       <c r="B46" s="5">
         <v>42</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5" t="str">
-        <f t="shared" ref="L46" si="40">IF(AND(G46&gt;=$I$3,H46&gt;=$L$3,OR(I46=4,I46=5),OR(J46=4,J46=5),K46&gt;=15),"通过第二轮","——")</f>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5" t="str">
+        <f t="shared" ref="Q46" si="40">IF(AND(L46&gt;=$N$3,M46&gt;=$Q$3,OR(N46=4,N46=5),OR(O46=4,O46=5),P46&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5" t="str">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" ht="30.5" customHeight="1">
       <c r="B47" s="2">
         <v>43</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2" t="str">
-        <f t="shared" ref="L47" si="41">IF(AND(G47&gt;$I$3,H47&gt;$L$3,OR(I47=4,I47=5),OR(J47=4,J47=5),K47&gt;=15),"通过第二轮","——")</f>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" ref="Q47" si="41">IF(AND(L47&gt;$N$3,M47&gt;$Q$3,OR(N47=4,N47=5),OR(O47=4,O47=5),P47&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2" t="str">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" ht="30.5" customHeight="1">
       <c r="B48" s="5">
         <v>44</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5" t="str">
-        <f t="shared" ref="L48" si="42">IF(AND(G48&gt;=$I$3,H48&gt;=$L$3,OR(I48=4,I48=5),OR(J48=4,J48=5),K48&gt;=15),"通过第二轮","——")</f>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5" t="str">
+        <f t="shared" ref="Q48" si="42">IF(AND(L48&gt;=$N$3,M48&gt;=$Q$3,OR(N48=4,N48=5),OR(O48=4,O48=5),P48&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5" t="str">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="30.5" customHeight="1">
       <c r="B49" s="2">
         <v>45</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2" t="str">
-        <f t="shared" ref="L49" si="43">IF(AND(G49&gt;$I$3,H49&gt;$L$3,OR(I49=4,I49=5),OR(J49=4,J49=5),K49&gt;=15),"通过第二轮","——")</f>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" ref="Q49" si="43">IF(AND(L49&gt;$N$3,M49&gt;$Q$3,OR(N49=4,N49=5),OR(O49=4,O49=5),P49&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="str">
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" ht="30.5" customHeight="1">
       <c r="B50" s="5">
         <v>46</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5" t="str">
-        <f t="shared" ref="L50" si="44">IF(AND(G50&gt;=$I$3,H50&gt;=$L$3,OR(I50=4,I50=5),OR(J50=4,J50=5),K50&gt;=15),"通过第二轮","——")</f>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5" t="str">
+        <f t="shared" ref="Q50" si="44">IF(AND(L50&gt;=$N$3,M50&gt;=$Q$3,OR(N50=4,N50=5),OR(O50=4,O50=5),P50&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5" t="str">
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" ht="30.5" customHeight="1">
       <c r="B51" s="2">
         <v>47</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2" t="str">
-        <f t="shared" ref="L51" si="45">IF(AND(G51&gt;$I$3,H51&gt;$L$3,OR(I51=4,I51=5),OR(J51=4,J51=5),K51&gt;=15),"通过第二轮","——")</f>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" ref="Q51" si="45">IF(AND(L51&gt;$N$3,M51&gt;$Q$3,OR(N51=4,N51=5),OR(O51=4,O51=5),P51&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="str">
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" ht="30.5" customHeight="1">
       <c r="B52" s="5">
         <v>48</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5" t="str">
-        <f t="shared" ref="L52" si="46">IF(AND(G52&gt;=$I$3,H52&gt;=$L$3,OR(I52=4,I52=5),OR(J52=4,J52=5),K52&gt;=15),"通过第二轮","——")</f>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5" t="str">
+        <f t="shared" ref="Q52" si="46">IF(AND(L52&gt;=$N$3,M52&gt;=$Q$3,OR(N52=4,N52=5),OR(O52=4,O52=5),P52&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5" t="str">
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" ht="30.5" customHeight="1">
       <c r="B53" s="2">
         <v>49</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2" t="str">
-        <f t="shared" ref="L53" si="47">IF(AND(G53&gt;$I$3,H53&gt;$L$3,OR(I53=4,I53=5),OR(J53=4,J53=5),K53&gt;=15),"通过第二轮","——")</f>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" ref="Q53" si="47">IF(AND(L53&gt;$N$3,M53&gt;$Q$3,OR(N53=4,N53=5),OR(O53=4,O53=5),P53&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2" t="str">
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" ht="30.5" customHeight="1">
       <c r="B54" s="5">
         <v>50</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5" t="str">
-        <f t="shared" ref="L54" si="48">IF(AND(G54&gt;=$I$3,H54&gt;=$L$3,OR(I54=4,I54=5),OR(J54=4,J54=5),K54&gt;=15),"通过第二轮","——")</f>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5" t="str">
+        <f t="shared" ref="Q54" si="48">IF(AND(L54&gt;=$N$3,M54&gt;=$Q$3,OR(N54=4,N54=5),OR(O54=4,O54=5),P54&gt;=15),"通过第二轮","——")</f>
         <v>——</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5" t="str">
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>——</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="56" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="57" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="58" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="59" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="60" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="61" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="62" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="63" spans="2:21" ht="30.5" customHeight="1"/>
+    <row r="64" spans="2:21" ht="30.5" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:P3" xr:uid="{EC9512B6-E470-48E9-84D1-3B599D28FF7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:U3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"-10%,-20%,-30%,-40%,-50%"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B5:B34 C44:C62" numberStoredAsText="1"/>
-    <ignoredError sqref="L5 P5:P56" unlockedFormula="1"/>
-    <ignoredError sqref="L6:L54 L55:L56" formula="1" unlockedFormula="1"/>
-    <ignoredError sqref="L57:L61" formula="1"/>
+    <ignoredError sqref="B5:B34 C55:C62" numberStoredAsText="1"/>
+    <ignoredError sqref="Q5 U5:U56" unlockedFormula="1"/>
+    <ignoredError sqref="Q6:Q54 Q55:Q56" formula="1" unlockedFormula="1"/>
+    <ignoredError sqref="Q57:Q61" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349828CB-DF84-4169-B8CC-CBB4B4B42ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:MS34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="12" customWidth="1"/>
     <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:357" s="15" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>51</v>
+    <row r="2" spans="2:357" s="15" customFormat="1" ht="76" customHeight="1">
+      <c r="B2" s="27" t="s">
+        <v>49</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -2758,14 +3053,14 @@
       <c r="MR2" s="14"/>
       <c r="MS2" s="14"/>
     </row>
-    <row r="3" spans="2:357" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:357" s="15" customFormat="1" ht="41" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="35"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -3118,7 +3413,7 @@
       <c r="MR3" s="14"/>
       <c r="MS3" s="14"/>
     </row>
-    <row r="4" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
@@ -3129,7 +3424,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>31</v>
@@ -3486,7 +3781,7 @@
       <c r="MR4" s="14"/>
       <c r="MS4" s="14"/>
     </row>
-    <row r="5" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3846,7 +4141,7 @@
       <c r="MR5" s="14"/>
       <c r="MS5" s="14"/>
     </row>
-    <row r="6" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4206,7 +4501,7 @@
       <c r="MR6" s="14"/>
       <c r="MS6" s="14"/>
     </row>
-    <row r="7" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4566,7 +4861,7 @@
       <c r="MR7" s="14"/>
       <c r="MS7" s="14"/>
     </row>
-    <row r="8" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4926,7 +5221,7 @@
       <c r="MR8" s="14"/>
       <c r="MS8" s="14"/>
     </row>
-    <row r="9" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5286,7 +5581,7 @@
       <c r="MR9" s="14"/>
       <c r="MS9" s="14"/>
     </row>
-    <row r="10" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -5646,7 +5941,7 @@
       <c r="MR10" s="14"/>
       <c r="MS10" s="14"/>
     </row>
-    <row r="11" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -6006,7 +6301,7 @@
       <c r="MR11" s="14"/>
       <c r="MS11" s="14"/>
     </row>
-    <row r="12" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6366,7 +6661,7 @@
       <c r="MR12" s="14"/>
       <c r="MS12" s="14"/>
     </row>
-    <row r="13" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -6726,7 +7021,7 @@
       <c r="MR13" s="14"/>
       <c r="MS13" s="14"/>
     </row>
-    <row r="14" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -7086,7 +7381,7 @@
       <c r="MR14" s="14"/>
       <c r="MS14" s="14"/>
     </row>
-    <row r="15" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7741,7 @@
       <c r="MR15" s="14"/>
       <c r="MS15" s="14"/>
     </row>
-    <row r="16" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -7806,7 +8101,7 @@
       <c r="MR16" s="14"/>
       <c r="MS16" s="14"/>
     </row>
-    <row r="17" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
@@ -8166,7 +8461,7 @@
       <c r="MR17" s="14"/>
       <c r="MS17" s="14"/>
     </row>
-    <row r="18" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -8526,7 +8821,7 @@
       <c r="MR18" s="14"/>
       <c r="MS18" s="14"/>
     </row>
-    <row r="19" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -8886,7 +9181,7 @@
       <c r="MR19" s="14"/>
       <c r="MS19" s="14"/>
     </row>
-    <row r="20" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -9246,7 +9541,7 @@
       <c r="MR20" s="14"/>
       <c r="MS20" s="14"/>
     </row>
-    <row r="21" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -9606,7 +9901,7 @@
       <c r="MR21" s="14"/>
       <c r="MS21" s="14"/>
     </row>
-    <row r="22" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -9966,7 +10261,7 @@
       <c r="MR22" s="14"/>
       <c r="MS22" s="14"/>
     </row>
-    <row r="23" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -10326,7 +10621,7 @@
       <c r="MR23" s="14"/>
       <c r="MS23" s="14"/>
     </row>
-    <row r="24" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -10686,7 +10981,7 @@
       <c r="MR24" s="14"/>
       <c r="MS24" s="14"/>
     </row>
-    <row r="25" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
@@ -11046,7 +11341,7 @@
       <c r="MR25" s="14"/>
       <c r="MS25" s="14"/>
     </row>
-    <row r="26" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -11406,7 +11701,7 @@
       <c r="MR26" s="14"/>
       <c r="MS26" s="14"/>
     </row>
-    <row r="27" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
@@ -11766,7 +12061,7 @@
       <c r="MR27" s="14"/>
       <c r="MS27" s="14"/>
     </row>
-    <row r="28" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -12126,7 +12421,7 @@
       <c r="MR28" s="14"/>
       <c r="MS28" s="14"/>
     </row>
-    <row r="29" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
@@ -12486,7 +12781,7 @@
       <c r="MR29" s="14"/>
       <c r="MS29" s="14"/>
     </row>
-    <row r="30" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
@@ -12846,7 +13141,7 @@
       <c r="MR30" s="14"/>
       <c r="MS30" s="14"/>
     </row>
-    <row r="31" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -13206,7 +13501,7 @@
       <c r="MR31" s="14"/>
       <c r="MS31" s="14"/>
     </row>
-    <row r="32" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -13566,7 +13861,7 @@
       <c r="MR32" s="14"/>
       <c r="MS32" s="14"/>
     </row>
-    <row r="33" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
@@ -13926,7 +14221,7 @@
       <c r="MR33" s="14"/>
       <c r="MS33" s="14"/>
     </row>
-    <row r="34" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:357" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -14302,29 +14597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB63B65-E64D-416F-8251-0AF6C879410C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:XFC34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="12" customWidth="1"/>
     <col min="8" max="16383" width="9" style="12"/>
     <col min="16384" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:360" s="12" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:360" s="12" customFormat="1" ht="76" customHeight="1">
       <c r="B2" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -14685,9 +14980,9 @@
       <c r="MU2" s="21"/>
       <c r="MV2" s="21"/>
     </row>
-    <row r="3" spans="2:360" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:360" s="12" customFormat="1" ht="34.5" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="39"/>
@@ -15048,7 +15343,7 @@
       <c r="MU3" s="21"/>
       <c r="MV3" s="21"/>
     </row>
-    <row r="4" spans="2:360" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:360" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -15056,16 +15351,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -15421,7 +15716,7 @@
       <c r="MU4" s="21"/>
       <c r="MV4" s="21"/>
     </row>
-    <row r="5" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
@@ -15784,7 +16079,7 @@
       <c r="MU5" s="21"/>
       <c r="MV5" s="21"/>
     </row>
-    <row r="6" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -16147,7 +16442,7 @@
       <c r="MU6" s="21"/>
       <c r="MV6" s="21"/>
     </row>
-    <row r="7" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -16510,7 +16805,7 @@
       <c r="MU7" s="21"/>
       <c r="MV7" s="21"/>
     </row>
-    <row r="8" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -16873,7 +17168,7 @@
       <c r="MU8" s="21"/>
       <c r="MV8" s="21"/>
     </row>
-    <row r="9" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
@@ -17236,7 +17531,7 @@
       <c r="MU9" s="21"/>
       <c r="MV9" s="21"/>
     </row>
-    <row r="10" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -17599,7 +17894,7 @@
       <c r="MU10" s="21"/>
       <c r="MV10" s="21"/>
     </row>
-    <row r="11" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
@@ -17962,7 +18257,7 @@
       <c r="MU11" s="21"/>
       <c r="MV11" s="21"/>
     </row>
-    <row r="12" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -18325,7 +18620,7 @@
       <c r="MU12" s="21"/>
       <c r="MV12" s="21"/>
     </row>
-    <row r="13" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
@@ -18688,7 +18983,7 @@
       <c r="MU13" s="21"/>
       <c r="MV13" s="21"/>
     </row>
-    <row r="14" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -19051,7 +19346,7 @@
       <c r="MU14" s="21"/>
       <c r="MV14" s="21"/>
     </row>
-    <row r="15" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
@@ -19414,7 +19709,7 @@
       <c r="MU15" s="21"/>
       <c r="MV15" s="21"/>
     </row>
-    <row r="16" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -19777,7 +20072,7 @@
       <c r="MU16" s="21"/>
       <c r="MV16" s="21"/>
     </row>
-    <row r="17" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -20140,7 +20435,7 @@
       <c r="MU17" s="21"/>
       <c r="MV17" s="21"/>
     </row>
-    <row r="18" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -20503,7 +20798,7 @@
       <c r="MU18" s="21"/>
       <c r="MV18" s="21"/>
     </row>
-    <row r="19" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
@@ -20866,7 +21161,7 @@
       <c r="MU19" s="21"/>
       <c r="MV19" s="21"/>
     </row>
-    <row r="20" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -21229,7 +21524,7 @@
       <c r="MU20" s="21"/>
       <c r="MV20" s="21"/>
     </row>
-    <row r="21" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
@@ -21592,7 +21887,7 @@
       <c r="MU21" s="21"/>
       <c r="MV21" s="21"/>
     </row>
-    <row r="22" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -21955,7 +22250,7 @@
       <c r="MU22" s="21"/>
       <c r="MV22" s="21"/>
     </row>
-    <row r="23" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
@@ -22318,7 +22613,7 @@
       <c r="MU23" s="21"/>
       <c r="MV23" s="21"/>
     </row>
-    <row r="24" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -22681,7 +22976,7 @@
       <c r="MU24" s="21"/>
       <c r="MV24" s="21"/>
     </row>
-    <row r="25" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
@@ -23044,7 +23339,7 @@
       <c r="MU25" s="21"/>
       <c r="MV25" s="21"/>
     </row>
-    <row r="26" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -23407,7 +23702,7 @@
       <c r="MU26" s="21"/>
       <c r="MV26" s="21"/>
     </row>
-    <row r="27" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
@@ -23770,7 +24065,7 @@
       <c r="MU27" s="21"/>
       <c r="MV27" s="21"/>
     </row>
-    <row r="28" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -24133,7 +24428,7 @@
       <c r="MU28" s="21"/>
       <c r="MV28" s="21"/>
     </row>
-    <row r="29" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B29" s="22" t="s">
         <v>25</v>
       </c>
@@ -24496,7 +24791,7 @@
       <c r="MU29" s="21"/>
       <c r="MV29" s="21"/>
     </row>
-    <row r="30" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
@@ -24859,7 +25154,7 @@
       <c r="MU30" s="21"/>
       <c r="MV30" s="21"/>
     </row>
-    <row r="31" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B31" s="22" t="s">
         <v>27</v>
       </c>
@@ -25222,7 +25517,7 @@
       <c r="MU31" s="21"/>
       <c r="MV31" s="21"/>
     </row>
-    <row r="32" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -25585,7 +25880,7 @@
       <c r="MU32" s="21"/>
       <c r="MV32" s="21"/>
     </row>
-    <row r="33" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>29</v>
       </c>
@@ -25948,7 +26243,7 @@
       <c r="MU33" s="21"/>
       <c r="MV33" s="21"/>
     </row>
-    <row r="34" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:360" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -26326,29 +26621,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD96F01-E811-407D-A4F5-4D249FB13287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:MX34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" style="12" customWidth="1"/>
-    <col min="7" max="8" width="16.6328125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:362" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:362" ht="82" customHeight="1">
       <c r="B2" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -26711,9 +27006,9 @@
       <c r="MW2" s="21"/>
       <c r="MX2" s="21"/>
     </row>
-    <row r="3" spans="2:362" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:362" ht="37.5" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="39"/>
@@ -27076,7 +27371,7 @@
       <c r="MW3" s="21"/>
       <c r="MX3" s="21"/>
     </row>
-    <row r="4" spans="2:362" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:362" ht="28" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -27087,19 +27382,19 @@
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -27455,7 +27750,7 @@
       <c r="MW4" s="21"/>
       <c r="MX4" s="21"/>
     </row>
-    <row r="5" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:362" ht="27" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
@@ -27820,7 +28115,7 @@
       <c r="MW5" s="21"/>
       <c r="MX5" s="21"/>
     </row>
-    <row r="6" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:362" ht="27" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -28185,7 +28480,7 @@
       <c r="MW6" s="21"/>
       <c r="MX6" s="21"/>
     </row>
-    <row r="7" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:362" ht="27" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -28550,7 +28845,7 @@
       <c r="MW7" s="21"/>
       <c r="MX7" s="21"/>
     </row>
-    <row r="8" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:362" ht="27" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -28915,7 +29210,7 @@
       <c r="MW8" s="21"/>
       <c r="MX8" s="21"/>
     </row>
-    <row r="9" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:362" ht="27" customHeight="1">
       <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
@@ -29280,7 +29575,7 @@
       <c r="MW9" s="21"/>
       <c r="MX9" s="21"/>
     </row>
-    <row r="10" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:362" ht="27" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -29645,7 +29940,7 @@
       <c r="MW10" s="21"/>
       <c r="MX10" s="21"/>
     </row>
-    <row r="11" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:362" ht="27" customHeight="1">
       <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
@@ -30010,7 +30305,7 @@
       <c r="MW11" s="21"/>
       <c r="MX11" s="21"/>
     </row>
-    <row r="12" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:362" ht="27" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -30375,7 +30670,7 @@
       <c r="MW12" s="21"/>
       <c r="MX12" s="21"/>
     </row>
-    <row r="13" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:362" ht="27" customHeight="1">
       <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
@@ -30740,7 +31035,7 @@
       <c r="MW13" s="21"/>
       <c r="MX13" s="21"/>
     </row>
-    <row r="14" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:362" ht="27" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -31105,7 +31400,7 @@
       <c r="MW14" s="21"/>
       <c r="MX14" s="21"/>
     </row>
-    <row r="15" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:362" ht="27" customHeight="1">
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
@@ -31470,7 +31765,7 @@
       <c r="MW15" s="21"/>
       <c r="MX15" s="21"/>
     </row>
-    <row r="16" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:362" ht="27" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -31835,7 +32130,7 @@
       <c r="MW16" s="21"/>
       <c r="MX16" s="21"/>
     </row>
-    <row r="17" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:362" ht="27" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -32200,7 +32495,7 @@
       <c r="MW17" s="21"/>
       <c r="MX17" s="21"/>
     </row>
-    <row r="18" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:362" ht="27" customHeight="1">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -32565,7 +32860,7 @@
       <c r="MW18" s="21"/>
       <c r="MX18" s="21"/>
     </row>
-    <row r="19" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:362" ht="27" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
@@ -32930,7 +33225,7 @@
       <c r="MW19" s="21"/>
       <c r="MX19" s="21"/>
     </row>
-    <row r="20" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:362" ht="27" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -33295,7 +33590,7 @@
       <c r="MW20" s="21"/>
       <c r="MX20" s="21"/>
     </row>
-    <row r="21" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:362" ht="27" customHeight="1">
       <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
@@ -33660,7 +33955,7 @@
       <c r="MW21" s="21"/>
       <c r="MX21" s="21"/>
     </row>
-    <row r="22" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:362" ht="27" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -34025,7 +34320,7 @@
       <c r="MW22" s="21"/>
       <c r="MX22" s="21"/>
     </row>
-    <row r="23" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:362" ht="27" customHeight="1">
       <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
@@ -34390,7 +34685,7 @@
       <c r="MW23" s="21"/>
       <c r="MX23" s="21"/>
     </row>
-    <row r="24" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:362" ht="27" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -34755,7 +35050,7 @@
       <c r="MW24" s="21"/>
       <c r="MX24" s="21"/>
     </row>
-    <row r="25" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:362" ht="27" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
@@ -35120,7 +35415,7 @@
       <c r="MW25" s="21"/>
       <c r="MX25" s="21"/>
     </row>
-    <row r="26" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:362" ht="27" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -35485,7 +35780,7 @@
       <c r="MW26" s="21"/>
       <c r="MX26" s="21"/>
     </row>
-    <row r="27" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:362" ht="27" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
@@ -35850,7 +36145,7 @@
       <c r="MW27" s="21"/>
       <c r="MX27" s="21"/>
     </row>
-    <row r="28" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:362" ht="27" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -36215,7 +36510,7 @@
       <c r="MW28" s="21"/>
       <c r="MX28" s="21"/>
     </row>
-    <row r="29" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:362" ht="27" customHeight="1">
       <c r="B29" s="22" t="s">
         <v>25</v>
       </c>
@@ -36580,7 +36875,7 @@
       <c r="MW29" s="21"/>
       <c r="MX29" s="21"/>
     </row>
-    <row r="30" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:362" ht="27" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
@@ -36945,7 +37240,7 @@
       <c r="MW30" s="21"/>
       <c r="MX30" s="21"/>
     </row>
-    <row r="31" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:362" ht="27" customHeight="1">
       <c r="B31" s="22" t="s">
         <v>27</v>
       </c>
@@ -37310,7 +37605,7 @@
       <c r="MW31" s="21"/>
       <c r="MX31" s="21"/>
     </row>
-    <row r="32" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:362" ht="27" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -37675,7 +37970,7 @@
       <c r="MW32" s="21"/>
       <c r="MX32" s="21"/>
     </row>
-    <row r="33" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:362" ht="27" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>29</v>
       </c>
@@ -38040,7 +38335,7 @@
       <c r="MW33" s="21"/>
       <c r="MX33" s="21"/>
     </row>
-    <row r="34" spans="2:362" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:362" ht="27" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -38419,28 +38714,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F91692C-1CAE-4F70-A45E-A4B672B6290E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:MV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.54296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:360" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:360" ht="79.5" customHeight="1">
       <c r="B2" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -38801,9 +39096,9 @@
       <c r="MU2" s="21"/>
       <c r="MV2" s="21"/>
     </row>
-    <row r="3" spans="2:360" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:360" ht="38" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="39"/>
@@ -39164,7 +39459,7 @@
       <c r="MU3" s="21"/>
       <c r="MV3" s="21"/>
     </row>
-    <row r="4" spans="2:360" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:360" ht="30.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -39178,10 +39473,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -39537,7 +39832,7 @@
       <c r="MU4" s="21"/>
       <c r="MV4" s="21"/>
     </row>
-    <row r="5" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:360" ht="27" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
@@ -39900,7 +40195,7 @@
       <c r="MU5" s="21"/>
       <c r="MV5" s="21"/>
     </row>
-    <row r="6" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:360" ht="27" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -40263,7 +40558,7 @@
       <c r="MU6" s="21"/>
       <c r="MV6" s="21"/>
     </row>
-    <row r="7" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:360" ht="27" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -40626,7 +40921,7 @@
       <c r="MU7" s="21"/>
       <c r="MV7" s="21"/>
     </row>
-    <row r="8" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:360" ht="27" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -40989,7 +41284,7 @@
       <c r="MU8" s="21"/>
       <c r="MV8" s="21"/>
     </row>
-    <row r="9" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:360" ht="27" customHeight="1">
       <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
@@ -41352,7 +41647,7 @@
       <c r="MU9" s="21"/>
       <c r="MV9" s="21"/>
     </row>
-    <row r="10" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:360" ht="27" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -41715,7 +42010,7 @@
       <c r="MU10" s="21"/>
       <c r="MV10" s="21"/>
     </row>
-    <row r="11" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:360" ht="27" customHeight="1">
       <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
@@ -42078,7 +42373,7 @@
       <c r="MU11" s="21"/>
       <c r="MV11" s="21"/>
     </row>
-    <row r="12" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:360" ht="27" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -42441,7 +42736,7 @@
       <c r="MU12" s="21"/>
       <c r="MV12" s="21"/>
     </row>
-    <row r="13" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:360" ht="27" customHeight="1">
       <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
@@ -42804,7 +43099,7 @@
       <c r="MU13" s="21"/>
       <c r="MV13" s="21"/>
     </row>
-    <row r="14" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:360" ht="27" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -43167,7 +43462,7 @@
       <c r="MU14" s="21"/>
       <c r="MV14" s="21"/>
     </row>
-    <row r="15" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:360" ht="27" customHeight="1">
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
@@ -43530,7 +43825,7 @@
       <c r="MU15" s="21"/>
       <c r="MV15" s="21"/>
     </row>
-    <row r="16" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:360" ht="27" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -43893,7 +44188,7 @@
       <c r="MU16" s="21"/>
       <c r="MV16" s="21"/>
     </row>
-    <row r="17" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:360" ht="27" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -44256,7 +44551,7 @@
       <c r="MU17" s="21"/>
       <c r="MV17" s="21"/>
     </row>
-    <row r="18" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:360" ht="27" customHeight="1">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -44619,7 +44914,7 @@
       <c r="MU18" s="21"/>
       <c r="MV18" s="21"/>
     </row>
-    <row r="19" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:360" ht="27" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
@@ -44982,7 +45277,7 @@
       <c r="MU19" s="21"/>
       <c r="MV19" s="21"/>
     </row>
-    <row r="20" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:360" ht="27" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -45345,7 +45640,7 @@
       <c r="MU20" s="21"/>
       <c r="MV20" s="21"/>
     </row>
-    <row r="21" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:360" ht="27" customHeight="1">
       <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
@@ -45708,7 +46003,7 @@
       <c r="MU21" s="21"/>
       <c r="MV21" s="21"/>
     </row>
-    <row r="22" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:360" ht="27" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -46071,7 +46366,7 @@
       <c r="MU22" s="21"/>
       <c r="MV22" s="21"/>
     </row>
-    <row r="23" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:360" ht="27" customHeight="1">
       <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
@@ -46434,7 +46729,7 @@
       <c r="MU23" s="21"/>
       <c r="MV23" s="21"/>
     </row>
-    <row r="24" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:360" ht="27" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -46797,7 +47092,7 @@
       <c r="MU24" s="21"/>
       <c r="MV24" s="21"/>
     </row>
-    <row r="25" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:360" ht="27" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
@@ -47160,7 +47455,7 @@
       <c r="MU25" s="21"/>
       <c r="MV25" s="21"/>
     </row>
-    <row r="26" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:360" ht="27" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -47523,7 +47818,7 @@
       <c r="MU26" s="21"/>
       <c r="MV26" s="21"/>
     </row>
-    <row r="27" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:360" ht="27" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
@@ -47886,7 +48181,7 @@
       <c r="MU27" s="21"/>
       <c r="MV27" s="21"/>
     </row>
-    <row r="28" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:360" ht="27" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -48249,7 +48544,7 @@
       <c r="MU28" s="21"/>
       <c r="MV28" s="21"/>
     </row>
-    <row r="29" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:360" ht="27" customHeight="1">
       <c r="B29" s="22" t="s">
         <v>25</v>
       </c>
@@ -48612,7 +48907,7 @@
       <c r="MU29" s="21"/>
       <c r="MV29" s="21"/>
     </row>
-    <row r="30" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:360" ht="27" customHeight="1">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
@@ -48975,7 +49270,7 @@
       <c r="MU30" s="21"/>
       <c r="MV30" s="21"/>
     </row>
-    <row r="31" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:360" ht="27" customHeight="1">
       <c r="B31" s="22" t="s">
         <v>27</v>
       </c>
@@ -49338,7 +49633,7 @@
       <c r="MU31" s="21"/>
       <c r="MV31" s="21"/>
     </row>
-    <row r="32" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:360" ht="27" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -49701,7 +49996,7 @@
       <c r="MU32" s="21"/>
       <c r="MV32" s="21"/>
     </row>
-    <row r="33" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:360" ht="27" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>29</v>
       </c>
@@ -50064,7 +50359,7 @@
       <c r="MU33" s="21"/>
       <c r="MV33" s="21"/>
     </row>
-    <row r="34" spans="2:360" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:360" ht="27" customHeight="1">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
